--- a/ROUGE/results-1.xlsx
+++ b/ROUGE/results-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="1620" yWindow="600" windowWidth="23740" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -2527,14 +2527,17 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
